--- a/07. Project Office/Project Plan.xlsx
+++ b/07. Project Office/Project Plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neilr\OneDrive\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neilr\OneDrive\Documents\GitHub\Hello-World---PROJECT-X--Automated-Attendance-Tracking-System\07. Project Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB97D23-619A-4FA9-86C5-EF185EA20D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BCE4EF-BFAC-423B-9F5A-F4972D58339C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="96">
   <si>
     <t>PROJECT X - AUTOMATED ATTENDANCE SYSTEM</t>
   </si>
@@ -316,6 +316,9 @@
   </si>
   <si>
     <t>Final project report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINK OF SPREADSHEET FOR BETTER VIEW: https://docs.google.com/spreadsheets/d/1zGzMMXct7iXR2Hl-LuByJCMRJI764TVWEX56U-hjwGU/edit?gid=0#gid=0 </t>
   </si>
 </sst>
 </file>
@@ -326,7 +329,7 @@
     <numFmt numFmtId="164" formatCode="mmmm&quot; &quot;d&quot;, &quot;yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -377,6 +380,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -512,10 +522,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -568,8 +579,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -786,10 +801,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AC36"/>
+  <dimension ref="A1:AC38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -851,7 +866,7 @@
       <c r="E2" s="15"/>
       <c r="F2" s="18" t="str">
         <f ca="1">"Days Left: " &amp; MAX(D2-TODAY(), 0) &amp; " Days"</f>
-        <v>Days Left: 36 Days</v>
+        <v>Days Left: 17 Days</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
@@ -2486,8 +2501,24 @@
       <c r="AB36" s="6"/>
       <c r="AC36" s="6"/>
     </row>
+    <row r="38" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A38:K38"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:E2"/>
@@ -2505,6 +2536,9 @@
       <formula1>"Wenona Marie M. Montemayor,Neil Roy G. Omongos,Shamaiah Lee Cadut,Hello World!"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="A38" r:id="rId1" location="gid=0 " display="https://docs.google.com/spreadsheets/d/1zGzMMXct7iXR2Hl-LuByJCMRJI764TVWEX56U-hjwGU/edit?gid=0#gid=0 " xr:uid="{AF5BB714-B66E-455E-AB6D-9647D9E27733}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>